--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoSeg_eva.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoSeg_eva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DA3EA6-2284-4CA1-A160-ECBEBF6E0D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C9BEF-5891-4848-A105-081E3CCDE4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="1170" yWindow="1530" windowWidth="23940" windowHeight="12630" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -128,21 +128,6 @@
     <t>PREGUNTA*</t>
   </si>
   <si>
-    <t>OPCION A*</t>
-  </si>
-  <si>
-    <t>OPCION B*</t>
-  </si>
-  <si>
-    <t>OPCION C</t>
-  </si>
-  <si>
-    <t>OPCION D</t>
-  </si>
-  <si>
-    <t>OPCION E</t>
-  </si>
-  <si>
     <t>Ejemplo</t>
   </si>
   <si>
@@ -168,6 +153,21 @@
   </si>
   <si>
     <t>TIPO DE ENTRADA OP B*</t>
+  </si>
+  <si>
+    <t>OPCIÓN A*</t>
+  </si>
+  <si>
+    <t>OPCIÓN B*</t>
+  </si>
+  <si>
+    <t>OPCIÓN C</t>
+  </si>
+  <si>
+    <t>OPCIÓN D</t>
+  </si>
+  <si>
+    <t>OPCIÓN E</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,34 +563,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -598,34 +598,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
